--- a/工作日志/周报20190419.xlsx
+++ b/工作日志/周报20190419.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="本周工作" sheetId="1" r:id="rId1"/>
@@ -364,8 +364,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -402,8 +402,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,48 +425,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -469,32 +439,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,7 +470,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,7 +486,45 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,14 +540,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,6 +561,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -573,175 +675,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,17 +779,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,26 +803,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,6 +852,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -875,10 +875,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -887,16 +887,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -905,115 +905,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1456,8 +1456,8 @@
   <sheetPr/>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1635,7 +1635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="59" customHeight="1" spans="1:5">
+    <row r="11" s="2" customFormat="1" ht="80" customHeight="1" spans="1:5">
       <c r="A11" s="8" t="s">
         <v>4</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="89" customHeight="1" spans="1:5">
+    <row r="12" s="2" customFormat="1" ht="102" customHeight="1" spans="1:5">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
@@ -2253,11 +2253,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B34:B35 B42:B1048576">
       <formula1>"bug,优化,新需求,需求变更,需求确认"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38 B21:B23 B24:B28 B29:B31 B36:B37 B39:B41">
+      <formula1>"bug,新需求,需求变更"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B32:B33">
       <formula1>"bug,优化,新需求,需求变更,需求确认,需求新增"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38 B21:B23 B24:B28 B29:B31 B36:B37 B39:B41">
-      <formula1>"bug,新需求,需求变更"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2481,7 +2481,7 @@
   <sheetPr/>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>

--- a/工作日志/周报20190419.xlsx
+++ b/工作日志/周报20190419.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="本周工作" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="115">
   <si>
     <t>模块名称</t>
   </si>
@@ -214,6 +214,12 @@
     <t>需求描述</t>
   </si>
   <si>
+    <t>开发人员</t>
+  </si>
+  <si>
+    <t>开发完成时间</t>
+  </si>
+  <si>
     <t>领导干部核查上报系统</t>
   </si>
   <si>
@@ -223,28 +229,60 @@
 </t>
   </si>
   <si>
+    <t>贾涛、徐勇</t>
+  </si>
+  <si>
+    <t>2019.04.23</t>
+  </si>
+  <si>
     <t>网站/app/微信</t>
   </si>
   <si>
     <t>网站首页按静态页面出可参考，app销售统计报表改为：2019年4月13日，一手房网签，具体参考截图</t>
+  </si>
+  <si>
+    <t>李晓强、贾涛</t>
+  </si>
+  <si>
+    <t>2019.04.25</t>
   </si>
   <si>
     <t>合同预定、预售合同申报、现售合同申报时，增加是开发企业是否终端申报项目信息校验：
 每月26日至次月1日之前为数据上报日，逾期未上报的系统自动禁止网签功能</t>
   </si>
   <si>
-    <t>小额款项（手续费，额度限定每次不超过500，每自然年不超过5000,配置为字典可根据业务进行动态维护）支出管理：
-账户转账等发生的扣款，由银行管理员操作，无流程，数据直接插入accountdetail，sm字段值为：“小额支出”</t>
+    <t>孙明星</t>
+  </si>
+  <si>
+    <t>2019.04.30</t>
+  </si>
+  <si>
+    <t>预售监管资金扣划管理（可以划拨所有资金）：针对法院、税务部门扣划预售监管资金的管理，监管中心操作，直接对账户资金找那个的余额和利息进行操作</t>
+  </si>
+  <si>
+    <t>杜宝亚</t>
+  </si>
+  <si>
+    <t>2019.04.26</t>
   </si>
   <si>
     <t>账户资金转移管理：支持账户资金由一个账户转移到另一个账户（只支持一对一操作）
 开发商财务发起（校验是否存在正在办理的存入/支出业务如果存在不可发起，发起后账户变更为锁定状态）---》银行管理员（变更银行账户、重新打印监管协议）---》监管中心（重新打印监管证明、原账户注销，原账号流水信息等相关信息绑定到新账号）</t>
   </si>
   <si>
+    <t>2019.05.8</t>
+  </si>
+  <si>
     <t>从业主体管理</t>
   </si>
   <si>
     <t>开发企业、中介公司、评估公司信用黑名单管理，针对每个主题形成黑名单添加和解除记录：原因、主体名称、证件类型、营业执照注册号、列入黑名单时间、注销时间、状态（有效无效）、附件资料</t>
+  </si>
+  <si>
+    <t>李榕</t>
+  </si>
+  <si>
+    <t>2019.04.24</t>
   </si>
   <si>
     <t>开发企业、中介公司、评估公司从业人员信用黑名单管理，针对每个从业人员形成黑名单添加和解除记录：原因、主体名称、证件类型、身份证号码、列入黑名单时间、注销时间、状态（有效无效）、附件资料</t>
@@ -255,6 +293,9 @@
   </si>
   <si>
     <t>企业信息更新实现开发企业-所属区市-市级部门三级管理</t>
+  </si>
+  <si>
+    <t>2019.05.6</t>
   </si>
   <si>
     <t>商品房销售管理系统</t>
@@ -288,6 +329,9 @@
     <t>1.测绘成果的变更。测绘公司通过终端申报测绘成果变更。 测绘成果更新管理应能提供数据提取及变更后数据提交的接口功能，同时应能根据提交的变更信息进行数据的更新处理。可查询测绘成果变更过程的历史数据。
 变更原因、附件信息、时间（创建变更案件同新增测绘成果）
 2.测绘成果注销：注销原因、附件信息、注销人、时间（创建注销案件）</t>
+  </si>
+  <si>
+    <t>2019.05.11</t>
   </si>
   <si>
     <t>租赁合同备案管理</t>
@@ -325,6 +369,9 @@
 参考征收系统做</t>
   </si>
   <si>
+    <t>2019.05.15</t>
+  </si>
+  <si>
     <t>存量房资金监管系统</t>
   </si>
   <si>
@@ -336,6 +383,9 @@
   </si>
   <si>
     <t>1.档案管理的智能自动化。实现档案信息与对应扫描件的自动挂接，实现了档案的案卷号和档案存放位置的自动分配、自动归档等功能，档案的出借、归还管理</t>
+  </si>
+  <si>
+    <t>2019.05.14</t>
   </si>
   <si>
     <t xml:space="preserve">1.房源信息核验：中介公司、个人通过系统核验房屋的真实性、有效性，产生租赁房源二维码，并发布（待定）
@@ -343,19 +393,16 @@
 </t>
   </si>
   <si>
+    <t>2019.05.20</t>
+  </si>
+  <si>
     <t>统计分析</t>
   </si>
   <si>
     <t>统计分析规则变动待定</t>
   </si>
   <si>
-    <t>系统维护</t>
-  </si>
-  <si>
-    <t>优化</t>
-  </si>
-  <si>
-    <t>系统优化</t>
+    <t>合同注销详情中显示身份证号</t>
   </si>
 </sst>
 </file>
@@ -402,30 +449,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -433,14 +458,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,17 +473,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -484,9 +494,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,7 +541,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -511,6 +559,21 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,24 +592,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,19 +602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,7 +620,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,13 +638,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,7 +674,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,115 +770,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,24 +807,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,6 +841,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -835,20 +869,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,6 +890,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -875,10 +916,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -887,137 +928,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1028,6 +1069,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1053,12 +1097,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1456,16 +1494,17 @@
   <sheetPr/>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="70.875" customWidth="1"/>
+    <col min="3" max="3" width="79.75" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1483,7 +1522,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1500,13 +1539,13 @@
       </c>
     </row>
     <row r="3" ht="54" spans="1:5">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1517,7 +1556,7 @@
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:5">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1534,7 +1573,7 @@
       </c>
     </row>
     <row r="5" ht="29" customHeight="1" spans="1:5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1551,7 +1590,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1568,7 +1607,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1585,13 +1624,13 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="59" customHeight="1" spans="1:5">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1602,13 +1641,13 @@
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="38" customHeight="1" spans="1:5">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1619,13 +1658,13 @@
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="23" customHeight="1" spans="1:5">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1636,13 +1675,13 @@
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="80" customHeight="1" spans="1:5">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1653,13 +1692,13 @@
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="102" customHeight="1" spans="1:5">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1670,13 +1709,13 @@
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1687,13 +1726,13 @@
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1704,13 +1743,13 @@
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1721,7 +1760,7 @@
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1738,13 +1777,13 @@
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1755,13 +1794,13 @@
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1772,13 +1811,13 @@
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="51" customHeight="1" spans="1:5">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1789,13 +1828,13 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1806,13 +1845,13 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1823,13 +1862,13 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1840,13 +1879,13 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1857,13 +1896,13 @@
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:5">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1874,13 +1913,13 @@
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:5">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1891,13 +1930,13 @@
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:5">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1908,13 +1947,13 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1925,13 +1964,13 @@
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:5">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1942,13 +1981,13 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1959,13 +1998,13 @@
       </c>
     </row>
     <row r="30" ht="24" customHeight="1" spans="1:5">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -1976,13 +2015,13 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -1993,13 +2032,13 @@
       </c>
     </row>
     <row r="32" ht="42" customHeight="1" spans="1:5">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -2010,13 +2049,13 @@
       </c>
     </row>
     <row r="33" ht="63" customHeight="1" spans="1:5">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -2027,25 +2066,25 @@
       </c>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="14"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="14"/>
+      <c r="C36" s="13"/>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="14"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="14"/>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="14"/>
+      <c r="C39" s="13"/>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="14"/>
+      <c r="C40" s="13"/>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="14"/>
+      <c r="C41" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B41">
@@ -2253,11 +2292,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B34:B35 B42:B1048576">
       <formula1>"bug,优化,新需求,需求变更,需求确认"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B32:B33">
+      <formula1>"bug,优化,新需求,需求变更,需求确认,需求新增"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38 B21:B23 B24:B28 B29:B31 B36:B37 B39:B41">
       <formula1>"bug,新需求,需求变更"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B32:B33">
-      <formula1>"bug,优化,新需求,需求变更,需求确认,需求新增"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2278,7 +2317,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26.125" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="14" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="13" customWidth="1"/>
     <col min="3" max="3" width="30.375" customWidth="1"/>
     <col min="4" max="4" width="26.125" customWidth="1"/>
   </cols>
@@ -2287,7 +2326,7 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
@@ -2301,13 +2340,13 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2315,13 +2354,13 @@
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2329,13 +2368,13 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2343,13 +2382,13 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2357,13 +2396,13 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2371,13 +2410,13 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2385,13 +2424,13 @@
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2399,13 +2438,13 @@
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>58</v>
       </c>
       <c r="C9" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>0.5</v>
       </c>
     </row>
@@ -2479,413 +2518,562 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="85.625" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="70" customHeight="1" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="E1" t="s">
         <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="70" customHeight="1" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>62</v>
+      <c r="C2" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>63</v>
+      <c r="E2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="18" customHeight="1" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>64</v>
+      <c r="C3" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="51" customHeight="1" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="E3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="51" customHeight="1" spans="1:6">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>65</v>
+      <c r="C4" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:4">
-      <c r="A5" s="8" t="s">
+      <c r="E4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
+      <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>66</v>
+      <c r="C5" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="71" customHeight="1" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="E5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="71" customHeight="1" spans="1:6">
+      <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>67</v>
+      <c r="C6" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="57" customHeight="1" spans="1:4">
-      <c r="A7" s="5" t="s">
-        <v>68</v>
+      <c r="E6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="57" customHeight="1" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>69</v>
+      <c r="C7" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="54" customHeight="1" spans="1:4">
-      <c r="A8" s="5" t="s">
-        <v>68</v>
+      <c r="E7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="54" customHeight="1" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>70</v>
+      <c r="C8" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="58" customHeight="1" spans="1:4">
-      <c r="A9" s="5" t="s">
-        <v>68</v>
+      <c r="E8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="58" customHeight="1" spans="1:6">
+      <c r="A9" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>71</v>
+      <c r="C9" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A10" s="5" t="s">
-        <v>68</v>
+      <c r="E9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A10" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="57" customHeight="1" spans="1:4">
-      <c r="A11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="29" customHeight="1" spans="1:4">
-      <c r="A12" s="5" t="s">
-        <v>73</v>
+      <c r="F11" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
+      <c r="A12" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>74</v>
+      <c r="C12" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="45" customHeight="1" spans="1:4">
-      <c r="A13" s="5" t="s">
-        <v>75</v>
+      <c r="E12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="44" customHeight="1" spans="1:6">
+      <c r="A13" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>76</v>
+      <c r="C13" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
-      <c r="A14" s="5" t="s">
-        <v>75</v>
+      <c r="E13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="62" customHeight="1" spans="1:6">
+      <c r="A14" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>77</v>
+      <c r="C14" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="62" customHeight="1" spans="1:4">
-      <c r="A15" s="5" t="s">
-        <v>75</v>
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="74" customHeight="1" spans="1:6">
+      <c r="A15" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>78</v>
+      <c r="C15" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="74" customHeight="1" spans="1:4">
-      <c r="A16" s="5" t="s">
-        <v>79</v>
+      <c r="E15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A16" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>80</v>
+      <c r="C16" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="1" ht="35" customHeight="1" spans="1:4">
-      <c r="A17" s="5" t="s">
-        <v>81</v>
+        <v>7</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A17" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>82</v>
+        <v>25</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" s="3" customFormat="1" ht="26" customHeight="1" spans="1:4">
-      <c r="A18" s="5" t="s">
-        <v>83</v>
+      <c r="E17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="118" customHeight="1" spans="1:6">
+      <c r="A18" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>84</v>
+      <c r="C18" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" s="3" customFormat="1" ht="118" customHeight="1" spans="1:4">
-      <c r="A19" s="5" t="s">
-        <v>85</v>
+      <c r="E18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="86" customHeight="1" spans="1:6">
+      <c r="A19" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>86</v>
+      <c r="C19" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="86" customHeight="1" spans="1:4">
-      <c r="A20" s="11" t="s">
-        <v>87</v>
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="38" customHeight="1" spans="1:6">
+      <c r="A20" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>88</v>
+        <v>3</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" s="3" customFormat="1" ht="38" customHeight="1" spans="1:4">
-      <c r="A21" s="5" t="s">
-        <v>89</v>
+        <v>107</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="38" customHeight="1" spans="1:6">
+      <c r="A21" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>90</v>
+      <c r="C21" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" s="3" customFormat="1" ht="38" customHeight="1" spans="1:4">
-      <c r="A22" s="5" t="s">
-        <v>85</v>
+        <v>107</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="39" customHeight="1" spans="1:6">
+      <c r="A22" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>92</v>
+      <c r="C22" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" s="3" customFormat="1" ht="39" customHeight="1" spans="1:4">
-      <c r="A23" s="5" t="s">
-        <v>81</v>
+        <v>107</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:6">
+      <c r="A23" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>93</v>
+      <c r="C23" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:4">
-      <c r="A24" s="5" t="s">
-        <v>94</v>
+        <v>107</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" s="4" customFormat="1" ht="21" customHeight="1" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" t="s">
-        <v>98</v>
+      <c r="E24" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="2" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="61" operator="equal">
       <formula>"需求新增"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="62" operator="equal">
       <formula>"优化"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="63" operator="equal">
       <formula>"需求确认"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="64" operator="equal">
       <formula>"新需求"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="65" operator="equal">
       <formula>"需求变更"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="66" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="cellIs" dxfId="2" priority="41" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="42" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="43" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="44" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="45" operator="equal">
       <formula>"bug"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="2" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="46" operator="equal">
       <formula>"需求新增"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="47" operator="equal">
       <formula>"需求确认"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="48" operator="equal">
       <formula>"新需求"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="49" operator="equal">
       <formula>"需求变更"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="50" operator="equal">
       <formula>"bug"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="2" priority="41" operator="equal">
+  <conditionalFormatting sqref="B22">
+    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
       <formula>"需求新增"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="22" operator="equal">
       <formula>"需求确认"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="23" operator="equal">
       <formula>"新需求"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="24" operator="equal">
       <formula>"需求变更"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
       <formula>"bug"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2907,6 +3095,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
     <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
       <formula>"需求新增"</formula>
     </cfRule>
@@ -2923,41 +3128,24 @@
       <formula>"bug"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+  <conditionalFormatting sqref="B5:B6">
+    <cfRule type="cellIs" dxfId="2" priority="56" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="57" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="58" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="59" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="60" operator="equal">
       <formula>"bug"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
-      <formula>"需求变更"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"新需求"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"需求确认"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"需求新增"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
-      <formula>"需求新增"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
-      <formula>"需求确认"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
-      <formula>"新需求"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
-      <formula>"需求变更"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
-      <formula>"bug"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B6">
+  <conditionalFormatting sqref="B7:B15">
     <cfRule type="cellIs" dxfId="2" priority="51" operator="equal">
       <formula>"需求新增"</formula>
     </cfRule>
@@ -2974,62 +3162,45 @@
       <formula>"bug"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B16">
-    <cfRule type="cellIs" dxfId="2" priority="46" operator="equal">
+  <conditionalFormatting sqref="B18:B19">
+    <cfRule type="cellIs" dxfId="2" priority="36" operator="equal">
       <formula>"需求新增"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="37" operator="equal">
       <formula>"需求确认"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="38" operator="equal">
       <formula>"新需求"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="39" operator="equal">
       <formula>"需求变更"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="40" operator="equal">
       <formula>"bug"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B20">
-    <cfRule type="cellIs" dxfId="2" priority="31" operator="equal">
+  <conditionalFormatting sqref="B20:B21">
+    <cfRule type="cellIs" dxfId="2" priority="26" operator="equal">
       <formula>"需求新增"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="27" operator="equal">
       <formula>"需求确认"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="28" operator="equal">
       <formula>"新需求"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
       <formula>"需求变更"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
-      <formula>"bug"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B22">
-    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
-      <formula>"需求新增"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="22" operator="equal">
-      <formula>"需求确认"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="23" operator="equal">
-      <formula>"新需求"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="equal">
-      <formula>"需求变更"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
       <formula>"bug"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B12 B13 B14 B15 B16 B17 B24 B25 B7:B11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B11 B12 B13 B14 B15 B16 B23 B7:B10">
       <formula1>"bug,优化,新需求,需求变更,需求确认,需求新增"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18 B19 B20 B21 B22 B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B18 B19 B20 B21 B22 B24">
       <formula1>"bug,优化,新需求,需求变更,需求确认"</formula1>
     </dataValidation>
   </dataValidations>
